--- a/Output Files/Runs TO DO.xlsx
+++ b/Output Files/Runs TO DO.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,10 +433,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Output Files/Runs TO DO.xlsx
+++ b/Output Files/Runs TO DO.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>

--- a/Output Files/Runs TO DO.xlsx
+++ b/Output Files/Runs TO DO.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">

--- a/Output Files/Runs TO DO.xlsx
+++ b/Output Files/Runs TO DO.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,7 +408,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>

--- a/Output Files/Runs TO DO.xlsx
+++ b/Output Files/Runs TO DO.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +411,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/Output Files/Runs TO DO.xlsx
+++ b/Output Files/Runs TO DO.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +400,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/Output Files/Runs TO DO.xlsx
+++ b/Output Files/Runs TO DO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Base</t>
   </si>
@@ -33,19 +33,25 @@
     <t>PM+BW</t>
   </si>
   <si>
+    <t>Distance + Absolute</t>
+  </si>
+  <si>
+    <t>Distance + Percent</t>
+  </si>
+  <si>
+    <t>Non-Distance</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>SA_50</t>
+  </si>
+  <si>
+    <t>SA_100</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Distance + Absolute</t>
-  </si>
-  <si>
-    <t>Distance + Percent</t>
-  </si>
-  <si>
-    <t>Non-Distance</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
 </sst>
 </file>
@@ -369,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,13 +389,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -397,10 +403,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -408,10 +414,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -419,10 +425,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -430,13 +436,29 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
